--- a/poverty_measurement/input/indice_precios_nacional_metochi.xlsx
+++ b/poverty_measurement/input/indice_precios_nacional_metochi.xlsx
@@ -115,13 +115,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>41929.965744018555</v>
+        <v>43542.059783935547</v>
       </c>
       <c r="C2" s="1">
-        <v>81558.6015625</v>
+        <v>82756.7265625</v>
       </c>
       <c r="D2" s="1">
-        <v>51.410842895507813</v>
+        <v>52.614524841308594</v>
       </c>
       <c r="E2" s="2">
         <v>43770</v>
@@ -132,13 +132,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>42647.66716003418</v>
+        <v>43457.301040649414</v>
       </c>
       <c r="C3" s="1">
-        <v>81558.6015625</v>
+        <v>82756.7265625</v>
       </c>
       <c r="D3" s="1">
-        <v>52.290828704833984</v>
+        <v>52.512107849121094</v>
       </c>
       <c r="E3" s="2">
         <v>43800</v>
@@ -149,13 +149,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>71245.046539306641</v>
+        <v>70495.849090576172</v>
       </c>
       <c r="C4" s="1">
-        <v>81558.6015625</v>
+        <v>82756.7265625</v>
       </c>
       <c r="D4" s="1">
-        <v>87.354423522949219</v>
+        <v>85.184432983398438</v>
       </c>
       <c r="E4" s="2">
         <v>43831</v>
@@ -166,13 +166,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>81558.599151611328</v>
+        <v>82756.722778320313</v>
       </c>
       <c r="C5" s="1">
-        <v>81558.6015625</v>
+        <v>82756.7265625</v>
       </c>
       <c r="D5" s="1">
-        <v>100</v>
+        <v>99.999992370605469</v>
       </c>
       <c r="E5" s="2">
         <v>43862</v>
@@ -183,13 +183,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>83844.446929931641</v>
+        <v>85657.906433105469</v>
       </c>
       <c r="C6" s="1">
-        <v>81558.6015625</v>
+        <v>82756.7265625</v>
       </c>
       <c r="D6" s="1">
-        <v>102.80270385742188</v>
+        <v>103.50567626953125</v>
       </c>
       <c r="E6" s="2">
         <v>43891</v>

--- a/poverty_measurement/input/indice_precios_nacional_metochi.xlsx
+++ b/poverty_measurement/input/indice_precios_nacional_metochi.xlsx
@@ -13,24 +13,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>mes</t>
   </si>
   <si>
-    <t>nov2019</t>
-  </si>
-  <si>
-    <t>dec2019</t>
-  </si>
-  <si>
-    <t>jan2020</t>
-  </si>
-  <si>
     <t>feb2020</t>
-  </si>
-  <si>
-    <t>mar2020</t>
   </si>
   <si>
     <t>valor</t>
@@ -90,7 +78,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -98,16 +86,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -115,84 +103,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>43542.059783935547</v>
+        <v>82756.722778320313</v>
       </c>
       <c r="C2" s="1">
         <v>82756.7265625</v>
       </c>
       <c r="D2" s="1">
-        <v>52.614524841308594</v>
+        <v>99.999992370605469</v>
       </c>
       <c r="E2" s="2">
-        <v>43770</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>43457.301040649414</v>
-      </c>
-      <c r="C3" s="1">
-        <v>82756.7265625</v>
-      </c>
-      <c r="D3" s="1">
-        <v>52.512107849121094</v>
-      </c>
-      <c r="E3" s="2">
-        <v>43800</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>70495.849090576172</v>
-      </c>
-      <c r="C4" s="1">
-        <v>82756.7265625</v>
-      </c>
-      <c r="D4" s="1">
-        <v>85.184432983398438</v>
-      </c>
-      <c r="E4" s="2">
-        <v>43831</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>82756.722778320313</v>
-      </c>
-      <c r="C5" s="1">
-        <v>82756.7265625</v>
-      </c>
-      <c r="D5" s="1">
-        <v>99.999992370605469</v>
-      </c>
-      <c r="E5" s="2">
         <v>43862</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>85657.906433105469</v>
-      </c>
-      <c r="C6" s="1">
-        <v>82756.7265625</v>
-      </c>
-      <c r="D6" s="1">
-        <v>103.50567626953125</v>
-      </c>
-      <c r="E6" s="2">
-        <v>43891</v>
       </c>
     </row>
   </sheetData>
